--- a/invitation/Yongjian_Yang_Ai2healthcare_SpeakerInfoRequest.xlsx
+++ b/invitation/Yongjian_Yang_Ai2healthcare_SpeakerInfoRequest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shich\Documents\Ai2healthcare\invitation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A0A2202-5102-4C64-BD95-271CA582B3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7888B4BD-54AB-453F-94F8-C502872F981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>[FirstName]</t>
   </si>
@@ -205,13 +205,19 @@
   </si>
   <si>
     <t>永健是德州农工大学电子计算机系四年级博士生，指导教授是Dr James Cai，研究方向是计算生物学和生物信息学，主要开发和利用机器学习的方法深度挖掘单细胞数据，为基因型-表型关联提供生物学解释，包括但不限于细胞通讯，基因敲除以及基因-蛋白质关联。他的相关工作发表在Cell Systems，Nucleic Acids Research等期刊以及RECOMB，ICIBM等学术会议。</t>
+  </si>
+  <si>
+    <t>[Email]</t>
+  </si>
+  <si>
+    <t>yjyang027@tamu.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +276,14 @@
       <name val="微软雅黑"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -289,12 +303,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,8 +333,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -678,7 +697,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -760,8 +779,12 @@
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" ht="15.75">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="2"/>
@@ -778,9 +801,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{18AA7134-1F5E-4150-80BA-CB77161C46E8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
